--- a/tabular/core/flu-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flu-ncbi-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/Flu-GLUE/tabular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/flu/Flu-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4807E2C8-3C56-CE4F-9071-8F887BD1CCBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74D0ED4-DCDB-0244-8954-ECD368CF1ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8480" yWindow="4940" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D23" sqref="A1:H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1438,7 +1438,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>47</v>
@@ -1464,7 +1464,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>48</v>
